--- a/data/trans_orig/Q20A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q20A-Estudios-trans_orig.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,12</t>
+          <t>0,08; 0,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,13</t>
+          <t>0,1; 0,14</t>
         </is>
       </c>
     </row>
@@ -811,47 +811,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,12</t>
+          <t>0,04; 0,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,27 +899,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
+          <t>0,04; 0,08</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,06</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,08</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>0,05; 0,08</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,06</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,14</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,08</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,09</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,29</t>
+          <t>0,05; 0,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,1</t>
+          <t>0,06; 0,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,18</t>
+          <t>0,06; 0,19</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,12</t>
+          <t>0,06; 0,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
+          <t>0,06; 0,08</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,09</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 0,13</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,09</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>0,06; 0,09</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,09</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 0,13</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,09</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q20A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q20A-Estudios-trans_orig.xlsx
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,21</t>
+          <t>0,09; 0,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -879,12 +879,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,11</t>
+          <t>0,04; 0,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,1</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,05</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,31</t>
+          <t>0,05; 0,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,15</t>
+          <t>0,08; 0,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,09</t>
+          <t>0,05; 0,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,12</t>
+          <t>0,06; 0,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,11</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,19</t>
+          <t>0,06; 0,18</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,13</t>
+          <t>0,07; 0,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
